--- a/baby_data.xlsx
+++ b/baby_data.xlsx
@@ -3919,7 +3919,7 @@
     <t xml:space="preserve">beautiful, noble, resilient, elegant</t>
   </si>
   <si>
-    <t xml:space="preserve">Mikasa is a Japanese name connected to Mount Mikasa in Nara, a place of history and poetry. In Japanese, Mi can mean “three” or “beautiful,” while kasa can mean “bamboo hat” or symbolically “protection,” giving the name the meaning of beauty, strength, and shelter. It reflects someone who stands strong yet brings comfort and protection to others, like a quiet shield for loved ones. The name carries the sense of being calm and resilient under pressure, while also representing cultural richness and timeless elegance.</t>
+    <t xml:space="preserve">Mikasa symbolizes beauty, strength, and shelter. It reflects someone who stands strong, reminding others to do good and preventing the wrong, yet brings comfort to others, like a quiet shield for loved ones. The name carries the sense of being calm and resilient under pressure, while also representing cultural richness and timeless elegance.</t>
   </si>
   <si>
     <t>Milara</t>
@@ -5822,7 +5822,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A289" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A268" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
